--- a/trend_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
+++ b/trend_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1253,6 +1253,93 @@
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>15</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0.004297523188012</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>115.77</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-2.6245508982036</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-3.85417684308911</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1.26855882821126</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-2.26703886862192</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>1815033.57</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5627502.8</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
+++ b/trend_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.118482324251288</v>
+        <v>0.989097769253366</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8125</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.75</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.37932267200884</v>
+        <v>-5.14034716109155</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.811660134160502</v>
+        <v>-10.3221798846321</v>
       </c>
       <c r="M2" t="n">
-        <v>7.03439862785261</v>
+        <v>-1.36570278324329</v>
       </c>
       <c r="N2" t="n">
-        <v>12.6897209173805</v>
+        <v>-26.3607546722644</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -656,7 +656,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.558514932955975</v>
+        <v>0.850488543396862</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.124829118250171</v>
+        <v>-0.6670071552628</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.29997013756952</v>
+        <v>-1.69719213330578</v>
       </c>
       <c r="M3" t="n">
-        <v>0.905556180201181</v>
+        <v>0.472898553130199</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.656995359211426</v>
+        <v>-4.04246760765333</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -740,11 +740,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.40324797025367</v>
+        <v>3.08299164009869e-05</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.645669291338583</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.37</v>
+        <v>11.5</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.06335678018962081</v>
+        <v>1.02646370023419</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.240724966723199</v>
+        <v>0.559612289746005</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0464522151404953</v>
+        <v>1.54746253907928</v>
       </c>
       <c r="N4" t="n">
-        <v>-17.1234541053029</v>
+        <v>8.925771306384281</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -817,7 +817,11 @@
           <t>Whau_1c</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -827,7 +831,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -842,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.40324797025367</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -854,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>112</v>
+        <v>0.37</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.1043042401296</v>
+        <v>0.0133626990772081</v>
       </c>
       <c r="L5" t="n">
-        <v>-20.2798861745371</v>
+        <v>-0.06633490819913281</v>
       </c>
       <c r="M5" t="n">
-        <v>6.50018083885577</v>
+        <v>0.0507271390824439</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.985985928687139</v>
+        <v>3.61154029113733</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -875,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -914,7 +918,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -929,7 +933,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.768783636774762</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -941,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>111</v>
       </c>
       <c r="K6" t="n">
-        <v>0.225896153556359</v>
+        <v>-0.617317704164059</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.670057212467726</v>
+        <v>-13.5112479791629</v>
       </c>
       <c r="M6" t="n">
-        <v>0.518398355384921</v>
+        <v>9.85063491979848</v>
       </c>
       <c r="N6" t="n">
-        <v>6.27489315434331</v>
+        <v>-0.556142075823477</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -962,7 +966,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1001,11 +1005,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1016,7 +1020,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.237137175383665</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1028,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.395</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.0180246744345442</v>
+        <v>0.467889583458621</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0528153749517815</v>
+        <v>-0.670057212467726</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0089941702656026</v>
+        <v>0.704927105436432</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.56320871760613</v>
+        <v>11.6972395864655</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1049,7 +1053,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1088,7 +1092,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -1103,7 +1107,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.185546684761349</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1115,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>112.5</v>
+        <v>0.3795</v>
       </c>
       <c r="K8" t="n">
-        <v>-2.3098814229249</v>
+        <v>-0.0077042186001917</v>
       </c>
       <c r="L8" t="n">
-        <v>-4.32329842434914</v>
+        <v>-0.0431795551072911</v>
       </c>
       <c r="M8" t="n">
-        <v>0.396643285065323</v>
+        <v>0.0104420062953873</v>
       </c>
       <c r="N8" t="n">
-        <v>-2.0532279314888</v>
+        <v>-2.03009712785026</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1136,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1175,7 +1179,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1190,7 +1194,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.053702318165127</v>
+        <v>0.295752518497458</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1202,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.985</v>
+        <v>111.5</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.263060941828255</v>
+        <v>-1.04956896551724</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.502706431957619</v>
+        <v>-4.0902001935726</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0338789650327329</v>
+        <v>0.729196334420924</v>
       </c>
       <c r="N9" t="n">
-        <v>-6.60127833947942</v>
+        <v>-0.941317457862997</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1223,7 +1227,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1262,11 +1266,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1277,7 +1281,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.004297523188012</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1289,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>115.77</v>
+        <v>3.985</v>
       </c>
       <c r="K10" t="n">
-        <v>-2.6245508982036</v>
+        <v>-0.0576510903426792</v>
       </c>
       <c r="L10" t="n">
-        <v>-3.85417684308911</v>
+        <v>-0.328637058482785</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.26855882821126</v>
+        <v>0.190223005577773</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.26703886862192</v>
+        <v>-1.446702392539</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1310,7 +1314,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1340,6 +1344,267 @@
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0.094443738769769</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4045</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.0173033974011911</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.026560404499094</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0011372236777692</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-4.27772494467024</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>1815033.57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5627502.8</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.002050700430952</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>114.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-2.58325645756458</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-3.54821195634238</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-1.40035936470761</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-2.25809130905994</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>1815033.57</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5627502.8</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.024372460369853</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.234446510036496</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.368577877420468</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.0722691156182014</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-5.33075284303084</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>1815033.57</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5627502.8</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Whau_1c</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
+++ b/trend_results/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="41">
   <si>
     <t>site name</t>
   </si>
@@ -106,25 +106,22 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
     <t>As likely as not improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -591,31 +588,31 @@
         <v>28</v>
       </c>
       <c r="F2">
-        <v>0.989097769253366</v>
+        <v>0.99537226306362</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.857142857142857</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="K2">
-        <v>-5.14034716109155</v>
+        <v>-6.18502423469388</v>
       </c>
       <c r="L2">
-        <v>-10.3221798846321</v>
+        <v>-10.5575029669367</v>
       </c>
       <c r="M2">
-        <v>-1.36570278324329</v>
+        <v>-2.17245724296644</v>
       </c>
       <c r="N2">
-        <v>-26.3607546722644</v>
+        <v>-37.4849953617811</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -630,19 +627,19 @@
         <v>5627502.8</v>
       </c>
       <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>40</v>
-      </c>
-      <c r="W2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -656,37 +653,37 @@
         <v>10</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3">
-        <v>0.850488543396862</v>
+        <v>0.875923258310389</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.726027397260274</v>
+        <v>0.779411764705882</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="K3">
-        <v>-0.6670071552628</v>
+        <v>-1.03267231742052</v>
       </c>
       <c r="L3">
-        <v>-1.69719213330578</v>
+        <v>-1.9030035253275</v>
       </c>
       <c r="M3">
-        <v>0.472898553130199</v>
+        <v>0.497392025047221</v>
       </c>
       <c r="N3">
-        <v>-4.04246760765333</v>
+        <v>-7.64942457348532</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -701,19 +698,19 @@
         <v>5627502.8</v>
       </c>
       <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
         <v>37</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>38</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>39</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>40</v>
-      </c>
-      <c r="W3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -727,37 +724,37 @@
         <v>15</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4">
-        <v>3.08299164009869E-05</v>
+        <v>0.011118008343903</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.645669291338583</v>
+        <v>0.634920634920635</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>1.02646370023419</v>
+        <v>0.624145591250854</v>
       </c>
       <c r="L4">
-        <v>0.559612289746005</v>
+        <v>0.13016108946606</v>
       </c>
       <c r="M4">
-        <v>1.54746253907928</v>
+        <v>1.12181202174983</v>
       </c>
       <c r="N4">
-        <v>8.925771306384281</v>
+        <v>5.20121326042379</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
@@ -772,19 +769,19 @@
         <v>5627502.8</v>
       </c>
       <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
         <v>37</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>38</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>39</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>40</v>
-      </c>
-      <c r="W4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -804,7 +801,7 @@
         <v>28</v>
       </c>
       <c r="F5">
-        <v>0.768783636774762</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -816,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.37</v>
+        <v>0.389</v>
       </c>
       <c r="K5">
-        <v>0.0133626990772081</v>
+        <v>0.0489339856304017</v>
       </c>
       <c r="L5">
-        <v>-0.06633490819913281</v>
+        <v>-0.0289240048527485</v>
       </c>
       <c r="M5">
-        <v>0.0507271390824439</v>
+        <v>0.0778987131576917</v>
       </c>
       <c r="N5">
-        <v>3.61154029113733</v>
+        <v>12.5794307533166</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
@@ -843,16 +840,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
         <v>37</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>38</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>39</v>
-      </c>
-      <c r="V5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -872,7 +869,7 @@
         <v>28</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -884,25 +881,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K6">
-        <v>-0.617317704164059</v>
+        <v>4.51951468660859</v>
       </c>
       <c r="L6">
-        <v>-13.5112479791629</v>
+        <v>-5.24550566120729</v>
       </c>
       <c r="M6">
-        <v>9.85063491979848</v>
+        <v>14.2642728671628</v>
       </c>
       <c r="N6">
-        <v>-0.556142075823477</v>
+        <v>4.03528097018624</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q6">
         <v>1815033.57</v>
@@ -911,16 +908,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s">
         <v>37</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>38</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>39</v>
-      </c>
-      <c r="V6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -940,7 +937,7 @@
         <v>28</v>
       </c>
       <c r="F7">
-        <v>0.768783636774762</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -958,7 +955,7 @@
         <v>0.467889583458621</v>
       </c>
       <c r="L7">
-        <v>-0.670057212467726</v>
+        <v>0.0085730284542946</v>
       </c>
       <c r="M7">
         <v>0.704927105436432</v>
@@ -970,7 +967,7 @@
         <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q7">
         <v>1815033.57</v>
@@ -979,16 +976,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
         <v>37</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>38</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>39</v>
-      </c>
-      <c r="V7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,7 +1005,7 @@
         <v>28</v>
       </c>
       <c r="F8">
-        <v>0.429013828493761</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1020,25 +1017,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3795</v>
+        <v>0.4045</v>
       </c>
       <c r="K8">
-        <v>-0.0077042186001917</v>
+        <v>-0.0113135438809596</v>
       </c>
       <c r="L8">
         <v>-0.0431795551072911</v>
       </c>
       <c r="M8">
-        <v>0.0104420062953873</v>
+        <v>0.0154251998399968</v>
       </c>
       <c r="N8">
-        <v>-2.03009712785026</v>
+        <v>-2.79692061333983</v>
       </c>
       <c r="O8" t="s">
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8">
         <v>1815033.57</v>
@@ -1047,16 +1044,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
         <v>37</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>38</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>39</v>
-      </c>
-      <c r="V8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1076,7 +1073,7 @@
         <v>28</v>
       </c>
       <c r="F9">
-        <v>0.295752518497458</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1088,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>111.5</v>
+        <v>112.5</v>
       </c>
       <c r="K9">
-        <v>-1.04956896551724</v>
+        <v>-0.904868896925857</v>
       </c>
       <c r="L9">
-        <v>-4.0902001935726</v>
+        <v>-2.81283178362496</v>
       </c>
       <c r="M9">
-        <v>0.729196334420924</v>
+        <v>1.48716241958941</v>
       </c>
       <c r="N9">
-        <v>-0.941317457862997</v>
+        <v>-0.80432790837854</v>
       </c>
       <c r="O9" t="s">
         <v>29</v>
@@ -1115,16 +1112,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
         <v>37</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>38</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>39</v>
-      </c>
-      <c r="V9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1144,7 +1141,7 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>0.429013828493761</v>
+        <v>0.704247481502542</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1159,22 +1156,22 @@
         <v>3.985</v>
       </c>
       <c r="K10">
-        <v>-0.0576510903426792</v>
+        <v>0.0681008130081301</v>
       </c>
       <c r="L10">
-        <v>-0.328637058482785</v>
+        <v>-0.303625178363397</v>
       </c>
       <c r="M10">
-        <v>0.190223005577773</v>
+        <v>0.27060747471295</v>
       </c>
       <c r="N10">
-        <v>-1.446702392539</v>
+        <v>1.70892880823413</v>
       </c>
       <c r="O10" t="s">
         <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q10">
         <v>1815033.57</v>
@@ -1183,16 +1180,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
         <v>37</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>38</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>39</v>
-      </c>
-      <c r="V10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1212,7 +1209,7 @@
         <v>28</v>
       </c>
       <c r="F11">
-        <v>0.094443738769769</v>
+        <v>0.138139207904009</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1224,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4045</v>
+        <v>0.42</v>
       </c>
       <c r="K11">
-        <v>-0.0173033974011911</v>
+        <v>-0.0122259414225941</v>
       </c>
       <c r="L11">
-        <v>-0.026560404499094</v>
+        <v>-0.0234837215763549</v>
       </c>
       <c r="M11">
-        <v>0.0011372236777692</v>
+        <v>0.0029185626837178</v>
       </c>
       <c r="N11">
-        <v>-4.27772494467024</v>
+        <v>-2.91093843395099</v>
       </c>
       <c r="O11" t="s">
         <v>29</v>
@@ -1251,16 +1248,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
         <v>37</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>38</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>39</v>
-      </c>
-      <c r="V11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,7 +1277,7 @@
         <v>28</v>
       </c>
       <c r="F12">
-        <v>0.002050700430952</v>
+        <v>0.0188334611143141</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1295,16 +1292,16 @@
         <v>114.4</v>
       </c>
       <c r="K12">
-        <v>-2.58325645756458</v>
+        <v>-2.2620218579235</v>
       </c>
       <c r="L12">
-        <v>-3.54821195634238</v>
+        <v>-3.43895224346255</v>
       </c>
       <c r="M12">
-        <v>-1.40035936470761</v>
+        <v>-0.776609287531527</v>
       </c>
       <c r="N12">
-        <v>-2.25809130905994</v>
+        <v>-1.97729183384921</v>
       </c>
       <c r="O12" t="s">
         <v>29</v>
@@ -1319,16 +1316,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" t="s">
         <v>37</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>38</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>39</v>
-      </c>
-      <c r="V12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1348,7 +1345,7 @@
         <v>28</v>
       </c>
       <c r="F13">
-        <v>0.024372460369853</v>
+        <v>0.046229797555431</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1360,25 +1357,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.398</v>
+        <v>4.456</v>
       </c>
       <c r="K13">
-        <v>-0.234446510036496</v>
+        <v>-0.18325372963048</v>
       </c>
       <c r="L13">
-        <v>-0.368577877420468</v>
+        <v>-0.349599658044129</v>
       </c>
       <c r="M13">
-        <v>-0.0722691156182014</v>
+        <v>-0.0404260672559515</v>
       </c>
       <c r="N13">
-        <v>-5.33075284303084</v>
+        <v>-4.1125163741131</v>
       </c>
       <c r="O13" t="s">
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q13">
         <v>1815033.57</v>
@@ -1387,16 +1384,16 @@
         <v>5627502.8</v>
       </c>
       <c r="S13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" t="s">
         <v>37</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>38</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>39</v>
-      </c>
-      <c r="V13" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
